--- a/Items and Services.xlsx
+++ b/Items and Services.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\HEXAGON-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v4032\Desktop\HEXAGON-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
     <sheet name="General Items" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="AbltyCost">[1]Mechanics!$AA$3:$AB$21</definedName>
@@ -48,6 +49,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SUZAN</author>
+    <author>v4032</author>
   </authors>
   <commentList>
     <comment ref="B9" authorId="0" shapeId="0">
@@ -92,12 +94,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="J34" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Choose a Specialization: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Piloting, Navigation, Sensors, Engineering, Weapons Systems, Defense Systems or IT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="294">
   <si>
     <t>Tent</t>
   </si>
@@ -397,9 +432,6 @@
     <t>Orbital Shuttle</t>
   </si>
   <si>
-    <t>Speed (km/h) (approx.)</t>
-  </si>
-  <si>
     <t>*3-6 hours travel</t>
   </si>
   <si>
@@ -936,22 +968,265 @@
     <t>900$/month</t>
   </si>
   <si>
-    <t>200,000$</t>
-  </si>
-  <si>
-    <t>170,000$</t>
-  </si>
-  <si>
-    <t>600,000$</t>
-  </si>
-  <si>
-    <t>2,000,000$</t>
-  </si>
-  <si>
     <t>Penthouse</t>
   </si>
   <si>
-    <t>5,000,000$</t>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Ballistic</t>
+  </si>
+  <si>
+    <t>Blunt</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Debris</t>
+  </si>
+  <si>
+    <t>Cutting</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Laser/Plasma</t>
+  </si>
+  <si>
+    <t>NBC weapons</t>
+  </si>
+  <si>
+    <t>Electric Shock</t>
+  </si>
+  <si>
+    <t>Shockwave</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>Firearms, Shrapnel</t>
+  </si>
+  <si>
+    <t>Bulletproof material</t>
+  </si>
+  <si>
+    <t>Common Defense</t>
+  </si>
+  <si>
+    <t>Plasma Shield</t>
+  </si>
+  <si>
+    <t>Ion Screen</t>
+  </si>
+  <si>
+    <t>ARC weapons/EMP</t>
+  </si>
+  <si>
+    <t>Radiation(Gamma)</t>
+  </si>
+  <si>
+    <t>Ideas</t>
+  </si>
+  <si>
+    <t>PEP Rifle (Pulsed-energy Projectile)</t>
+  </si>
+  <si>
+    <t>Ion Screen Defense System (ISDF)</t>
+  </si>
+  <si>
+    <t>Plasma Shielding System (PSS)</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>Targeting systems</t>
+  </si>
+  <si>
+    <t>Heat-seeking missiles</t>
+  </si>
+  <si>
+    <t>ECM system</t>
+  </si>
+  <si>
+    <t>Protects from radiations</t>
+  </si>
+  <si>
+    <t>Deflects incoming fast-moving objects and shockwave</t>
+  </si>
+  <si>
+    <t>Fullerene Armor</t>
+  </si>
+  <si>
+    <t>Transparent Alumina</t>
+  </si>
+  <si>
+    <t>Stronger than steel, transparent material</t>
+  </si>
+  <si>
+    <t>Diamond supermaterial, possibly strongest material available</t>
+  </si>
+  <si>
+    <t>Usually aerogel, protects from fire, laser and other heat-based damage</t>
+  </si>
+  <si>
+    <t>Ablative Armor (Mod)</t>
+  </si>
+  <si>
+    <t>Carbon Nanotube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300x stronger than steel. </t>
+  </si>
+  <si>
+    <t>Jetpack</t>
+  </si>
+  <si>
+    <t>Hoverpack</t>
+  </si>
+  <si>
+    <t>Allows for high and long jumps. Backpack</t>
+  </si>
+  <si>
+    <t>Allows flight for short periods of time. Hands, back and feet</t>
+  </si>
+  <si>
+    <t>Reactive Armor</t>
+  </si>
+  <si>
+    <t>Remote area</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>+20%</t>
+  </si>
+  <si>
+    <t>Rich district</t>
+  </si>
+  <si>
+    <t>Harder to reach</t>
+  </si>
+  <si>
+    <t>+10%</t>
+  </si>
+  <si>
+    <t>Convenient and easy to reach</t>
+  </si>
+  <si>
+    <t>Fancy and secured</t>
+  </si>
+  <si>
+    <t>Poor district</t>
+  </si>
+  <si>
+    <t>Crowded and unsafe</t>
+  </si>
+  <si>
+    <t>-20%</t>
+  </si>
+  <si>
+    <t>+60%</t>
+  </si>
+  <si>
+    <t>Exotic area</t>
+  </si>
+  <si>
+    <t>Underwater or space home?</t>
+  </si>
+  <si>
+    <t>+130%</t>
+  </si>
+  <si>
+    <t>300,000$</t>
+  </si>
+  <si>
+    <t>700,000$</t>
+  </si>
+  <si>
+    <t>170,000$ + (50,000$  X ★)</t>
+  </si>
+  <si>
+    <t>3,000,000$ X ★</t>
+  </si>
+  <si>
+    <t>10,000,000$ X ★</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>EXTRAS</t>
+  </si>
+  <si>
+    <t>Luxurious complexe</t>
+  </si>
+  <si>
+    <t>Best house one can find</t>
+  </si>
+  <si>
+    <t>A big family home</t>
+  </si>
+  <si>
+    <t>Unexpensive housing</t>
+  </si>
+  <si>
+    <t>An alternative to a house</t>
+  </si>
+  <si>
+    <t>Either that or a cardboard box</t>
+  </si>
+  <si>
+    <t>Security system</t>
+  </si>
+  <si>
+    <t>+25% X ★</t>
+  </si>
+  <si>
+    <t>Approx. Speed in Km/h</t>
+  </si>
+  <si>
+    <t>Licenses</t>
+  </si>
+  <si>
+    <t>License or Papers</t>
+  </si>
+  <si>
+    <t>Respected almost everywhere</t>
+  </si>
+  <si>
+    <t>Manual Driving License</t>
+  </si>
+  <si>
+    <t>Needed for special vehicles</t>
+  </si>
+  <si>
+    <t>Spaceship Operation</t>
+  </si>
+  <si>
+    <t>Any spaceship position needs it</t>
+  </si>
+  <si>
+    <t>WU Gun License</t>
+  </si>
+  <si>
+    <t>WU High-tech License</t>
+  </si>
+  <si>
+    <t>Exosuits aren't for everyone</t>
+  </si>
+  <si>
+    <t>500$ + 3 weeks</t>
+  </si>
+  <si>
+    <t>300$ + 4 weeks</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1334,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1167,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1190,64 +1478,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,7 +1515,55 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1277,10 +1572,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,6 +1625,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Mechanics"/>
+      <sheetName val="Perks"/>
       <sheetName val="Character Sheet"/>
       <sheetName val="Interstellar Travel"/>
       <sheetName val="World Union Members"/>
@@ -1318,7 +1641,7 @@
             <v>1</v>
           </cell>
           <cell r="AB3">
-            <v>-4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
@@ -1326,7 +1649,7 @@
             <v>2</v>
           </cell>
           <cell r="AB4">
-            <v>-3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="5">
@@ -1334,7 +1657,7 @@
             <v>3</v>
           </cell>
           <cell r="AB5">
-            <v>-2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="6">
@@ -1342,7 +1665,7 @@
             <v>4</v>
           </cell>
           <cell r="AB6">
-            <v>-1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="7">
@@ -1350,7 +1673,7 @@
             <v>5</v>
           </cell>
           <cell r="AB7">
-            <v>0</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="8">
@@ -1358,7 +1681,7 @@
             <v>6</v>
           </cell>
           <cell r="AB8">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="9">
@@ -1366,7 +1689,7 @@
             <v>7</v>
           </cell>
           <cell r="AB9">
-            <v>3</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="10">
@@ -1374,7 +1697,7 @@
             <v>8</v>
           </cell>
           <cell r="AB10">
-            <v>6</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="11">
@@ -1382,7 +1705,7 @@
             <v>9</v>
           </cell>
           <cell r="AB11">
-            <v>10</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="12">
@@ -1390,181 +1713,14 @@
             <v>10</v>
           </cell>
           <cell r="AB12">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="Z18">
-            <v>0</v>
-          </cell>
-          <cell r="AA18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="Z19">
-            <v>1</v>
-          </cell>
-          <cell r="AA19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Z20">
-            <v>2</v>
-          </cell>
-          <cell r="AA20">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="Z21">
-            <v>3</v>
-          </cell>
-          <cell r="AA21">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="Z22">
-            <v>4</v>
-          </cell>
-          <cell r="AA22">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="Z23">
-            <v>5</v>
-          </cell>
-          <cell r="AA23">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="Z24">
-            <v>6</v>
-          </cell>
-          <cell r="AA24">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="Z25">
-            <v>7</v>
-          </cell>
-          <cell r="AA25">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Z26">
-            <v>8</v>
-          </cell>
-          <cell r="AA26">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Z27">
-            <v>9</v>
-          </cell>
-          <cell r="AA27">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Z28">
-            <v>10</v>
-          </cell>
-          <cell r="AA28">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Z29">
-            <v>11</v>
-          </cell>
-          <cell r="AA29">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Z30">
-            <v>12</v>
-          </cell>
-          <cell r="AA30">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="Z31">
-            <v>13</v>
-          </cell>
-          <cell r="AA31">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="Z32">
-            <v>14</v>
-          </cell>
-          <cell r="AA32">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="Z33">
-            <v>15</v>
-          </cell>
-          <cell r="AA33">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="Z34">
-            <v>16</v>
-          </cell>
-          <cell r="AA34">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="Z35">
-            <v>17</v>
-          </cell>
-          <cell r="AA35">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="Z36">
-            <v>18</v>
-          </cell>
-          <cell r="AA36">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="Z37">
-            <v>19</v>
-          </cell>
-          <cell r="AA37">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="Z38">
-            <v>20</v>
-          </cell>
-          <cell r="AA38">
-            <v>50</v>
+            <v>25</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="4">
           <cell r="C4">
             <v>658</v>
@@ -1614,16 +1770,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
+      <sheetData sheetId="5">
         <row r="42">
           <cell r="D42">
             <v>103631.7389096416</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1894,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,281 +2061,307 @@
   <sheetData>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="J5" s="32" t="s">
+      <c r="B5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="J7" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="J8" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="J9" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="J10" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="J11" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="J7" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="31"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="J12" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="J13" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="J9" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="J10" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="J11" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="J12" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="J13" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="18"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16"/>
+      <c r="J15" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="J16" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -2189,14 +2371,20 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
+      <c r="J17" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
@@ -2206,156 +2394,203 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
+      <c r="J18" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="J19" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="J20" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="J21" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="H22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="16"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
@@ -2366,7 +2601,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2375,7 +2610,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -2383,511 +2618,584 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
+      <c r="J29" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="J31" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="27"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="J32" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" s="51"/>
+      <c r="L32" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="P32" s="51"/>
+    </row>
+    <row r="33" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="J33" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" s="54"/>
+      <c r="L33" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="P33" s="51"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="J34" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="J35" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" s="53"/>
+      <c r="L35" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+    </row>
+    <row r="36" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+    </row>
+    <row r="41" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="27" t="s">
+      <c r="C45" s="34"/>
+      <c r="D45" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="28" t="s">
-        <v>127</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
-      <c r="G45" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="23" t="s">
+      <c r="G45" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="12" t="s">
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12" t="s">
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="23" t="s">
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12" t="s">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12" t="s">
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12" t="s">
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="12" t="s">
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="B19:H20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:H46"/>
+  <mergeCells count="207">
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="J29:P30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B41:H41"/>
@@ -2909,41 +3217,133 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B30:H31"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="B19:H20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J5:P6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2956,7 +3356,7 @@
   <dimension ref="A4:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,10 +3390,10 @@
       <c r="B6" s="1">
         <v>120</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="39"/>
+      <c r="G6" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3023,7 +3423,7 @@
         <v>200</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3040,7 +3440,7 @@
         <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,7 +3457,7 @@
         <v>500</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3074,7 +3474,7 @@
         <v>780</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3091,7 +3491,7 @@
         <v>2390</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,7 +3508,7 @@
         <v>2275</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3119,101 +3519,101 @@
         <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="1">
         <v>2135</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1">
         <v>1970</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H16" s="1">
         <v>2540</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H17" s="1">
         <v>2345</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G18" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="1">
         <v>2230</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="1">
         <v>2020</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="1">
         <v>2410</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G21" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="1">
         <v>7320</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G22" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="1">
         <v>9280</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3221,20 +3621,20 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="H24" s="40"/>
+      <c r="G24" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="1">
         <v>90</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3245,7 +3645,7 @@
         <v>90</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3383,43 +3783,43 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3439,7 +3839,7 @@
         <v>40</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3450,7 +3850,7 @@
         <v>650</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,7 +3861,7 @@
         <v>275</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3526,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3537,7 +3937,7 @@
         <v>200</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3662,7 +4062,7 @@
         <v>900</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3703,7 +4103,7 @@
         <v>50</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3733,4 +4133,900 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:AA52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="Q9" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="Q10" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="Q11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="Q12" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="Q13" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="Q14" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="Q15" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="Q16" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="Q17" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="Q18" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="Q19" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+    </row>
+    <row r="33" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+    </row>
+    <row r="34" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+    </row>
+    <row r="35" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+    </row>
+    <row r="36" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+    </row>
+    <row r="37" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+    </row>
+    <row r="38" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+    </row>
+    <row r="39" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+    </row>
+    <row r="40" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+    </row>
+    <row r="41" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+    </row>
+    <row r="42" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+    </row>
+    <row r="43" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+    </row>
+    <row r="44" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+    </row>
+    <row r="45" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+    </row>
+    <row r="46" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+    </row>
+    <row r="47" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+    </row>
+    <row r="48" spans="17:27" x14ac:dyDescent="0.25">
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+    </row>
+    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+    </row>
+    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+    </row>
+    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+    </row>
+    <row r="52" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="129">
+    <mergeCell ref="T42:AA42"/>
+    <mergeCell ref="T43:AA43"/>
+    <mergeCell ref="T44:AA44"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="T35:AA35"/>
+    <mergeCell ref="T36:AA36"/>
+    <mergeCell ref="T37:AA37"/>
+    <mergeCell ref="T38:AA38"/>
+    <mergeCell ref="T39:AA39"/>
+    <mergeCell ref="T40:AA40"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="T30:AA30"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="T32:AA32"/>
+    <mergeCell ref="T33:AA33"/>
+    <mergeCell ref="T34:AA34"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T41:AA41"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>